--- a/outputs-HGR-r202/test-f__Staphylococcaceae_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-f__Staphylococcaceae_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="54">
   <si>
     <t>Row</t>
   </si>
@@ -196,7 +196,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -206,14 +206,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -233,21 +237,21 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -261,7 +265,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -275,7 +279,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -289,7 +293,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -303,7 +307,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -317,7 +321,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -331,7 +335,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -345,7 +349,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -359,7 +363,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -373,7 +377,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -387,7 +391,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -401,7 +405,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -415,7 +419,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -429,7 +433,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B15">
@@ -443,7 +447,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -457,7 +461,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B17">
@@ -471,7 +475,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B18">
@@ -485,7 +489,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B19">
@@ -499,7 +503,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B20">
@@ -513,7 +517,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B21">
@@ -527,7 +531,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B22">
@@ -541,7 +545,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B23">
@@ -555,7 +559,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B24">
@@ -569,7 +573,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B25">
@@ -583,7 +587,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B26">
@@ -597,7 +601,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B27">
@@ -611,7 +615,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B28">
@@ -625,7 +629,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B29">
@@ -639,7 +643,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B30">
@@ -653,7 +657,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B31">
@@ -667,7 +671,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B32">
@@ -681,7 +685,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B33">
@@ -695,7 +699,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B34">
@@ -709,7 +713,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B35">
@@ -723,7 +727,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B36">
@@ -737,7 +741,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B37">
@@ -751,7 +755,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B38">
@@ -765,7 +769,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B39">
@@ -779,7 +783,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B40">
@@ -793,7 +797,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B41">
@@ -807,7 +811,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B42">
@@ -821,7 +825,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B43">
@@ -835,7 +839,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B44">
@@ -849,7 +853,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B45">
@@ -863,7 +867,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B46">
@@ -877,7 +881,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B47">
@@ -891,7 +895,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B48">
@@ -905,7 +909,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B49">
@@ -919,7 +923,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B50">
@@ -933,7 +937,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B51">
